--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2007 (G07).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2007 (G07).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,168 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cunning Wish</t>
+          <t>('Cunning Wish', ['{2}{U}', 'Instant', 'You may reveal an instant card you own from outside the game and put it into your hand. Exile Cunning Wish.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{U}</t>
+          <t>('Decree of Justice', ['{X}{X}{2}{W}{W}', 'Sorcery', 'Create X 4/4 white Angel creature tokens with flying.', 'Cycling {2}{W} ({2}{W}, Discard this card: Draw a card.)', 'When you cycle Decree of Justice, you may pay {X}. If you do, create X 1/1 white Soldier creature tokens.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Ravenous Baloth', ['{2}{G}{G}', 'Creature — Beast', 'Sacrifice a Beast: You gain 4 life.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>You may reveal an instant card you own from outside the game and put it into your hand. Exile Cunning Wish.</t>
+          <t>('Vindicate', ['{1}{W}{B}', 'Sorcery', 'Destroy target permanent.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Decree of Justice</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{X}{X}{2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Create X 4/4 white Angel creature tokens with flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cycling {2}{W} ({2}{W}, Discard this card: Draw a card.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>When you cycle Decree of Justice, you may pay {X}. If you do, create X 1/1 white Soldier creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ravenous Baloth</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sacrifice a Beast: You gain 4 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Vindicate</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{1}{W}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Destroy target permanent.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Yawgmoth's Will</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{2}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Until end of turn, you may play lands and cast spells from your graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>If a card would be put into your graveyard from anywhere this turn, exile that card instead.</t>
+          <t>("Yawgmoth's Will", ['{2}{B}', 'Sorcery', 'Until end of turn, you may play lands and cast spells from your graveyard.', 'If a card would be put into your graveyard from anywhere this turn, exile that card instead.'])</t>
         </is>
       </c>
     </row>
